--- a/data/publications/orcid/export_to_manual/Uniwersytet_Pedagogiczny_Komisji_Edukacji_Narodowej_w_Krakowie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Pedagogiczny_Komisji_Edukacji_Narodowej_w_Krakowie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1922 +436,2080 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Karolina Zofia Czernecka</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2971-9591</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Neuropsychologiczne aspekty percepcji muzyki</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Res Facta Nova</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Karolina_Zofia_Czernecka_5</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Ewa Barbara Czerwińska-Jakimiuk</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2367-7965</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Agresja w perspektywie psychologicznej i filozoficznej : przegląd wybranych teorii </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Argument. Biannual Philosophical Journal Vol. 10, nr 1, s. 197-212</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ewa_Barbara_Czerwińska-Jakimiuk_1</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Ewa Barbara Czerwińska-Jakimiuk</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2367-7965</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Perspektywy życiowe u uczniów szkoły ponadgimnazjalnej i ich sytuacyjne i osobowościowe korelaty</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Biblioteka Współczesnej Myśli Pedagogicznej. - 2019, T. 8, s. 79-90</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ewa_Barbara_Czerwińska-Jakimiuk_2</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Natalia Czyżowska</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2597-5608</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t xml:space="preserve">Edukacja moralna - koncepcje i badania </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Public Policy Studies</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Natalia_Czyżowska_4</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Natalia Czyżowska</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2597-5608</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Opieka skoncentrowana na godności jako odpowiedź na potrzeby osób u kresu życia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Quaterly Journal Fides et Ratio</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Natalia_Czyżowska_10</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Natalia Czyżowska</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2597-5608</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t xml:space="preserve">W poszukiwaniu atrybutów dobrej śmierci </t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Quaterly Journal Fides et Ratio</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Natalia_Czyżowska_12</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>27</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Agnieszka Fudali-Czyż</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6769-2975</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Employability of University Students: Introduction of the Concept and the Psychometric Properties of the Polish Self-Perceived Employability Scale</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2021-01-27</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Educational Studies Review</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Agnieszka_Fudali-Czyż_2</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Lada Kaliská</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9700-5980</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Editorial</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Školský psychológ</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Lada_Kaliská_4</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>49</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Lada Kaliská</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9700-5980</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Rozvoj potencialít črtovej emociálnej inteligencie u školopovinných detí primárneho stupňa edukácie</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Školský psychológ</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Lada_Kaliská_7</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Lada Kaliská</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9700-5980</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Examination of the latent structure of DSM-5 posttraumatic stress disorder symptoms in Slovakia</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Psychiatry Research</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Lada_Kaliská_8</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>51</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Lada Kaliská</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9700-5980</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Komparácia a komplementarita dvoch koncepcií črtovej emocionálnej inteligencie v dvoch vývinových obdobiach</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Psychologie a její¬ kontexty</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Lada_Kaliská_9</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>52</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Lada Kaliská</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9700-5980</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Renate Motschnig &amp; David Ryback. (2016). Transforming Communication in Leadership and Teamwork. Person-Centered Innovations</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Psychologie a její¬ kontexty</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Lada_Kaliská_10</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>53</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Lada Kaliská</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9700-5980</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Stretnutie psychológov a školských psychológov</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Spravodajca Univerzity Mateja Bela v Banskej Bystrici</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Lada_Kaliská_11</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>55</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Lada Kaliská</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9700-5980</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Editorial</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Školský psychológ</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Lada_Kaliská_13</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>56</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Alina Maria Kałużna-Wielobób</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1921-8822</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>The relationship between emotion regulation strategies, personality traits and skin picking behaviours in a non-clinical sample of Polish adults</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Psychiatry Research</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Alina_Maria_Kałużna-Wielobób_1</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>57</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Alina Maria Kałużna-Wielobób</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1921-8822</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>The role of activation level and emotion regulation strategies in skin-picking behaviours: findings in non-clinical sample</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Journal of Obsessive-Compulsive and Related Disorders</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Alina_Maria_Kałużna-Wielobób_2</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>58</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Alina Maria Kałużna-Wielobób</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1921-8822</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>he community feeling versus anxiety, self-esteem and well-being - introductory research</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Polish Psychological Bulletin</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Alina_Maria_Kałużna-Wielobób_3</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>65</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Joanna Kossewska</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8156-6764</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Acceptance of robot-mediated teaching and therapy for children with atypical development by Polish professionals</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Journal of Policy and Practice in Intellectual Disabilities</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Joanna_Kossewska_1</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>66</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Joanna Kossewska</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8156-6764</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Teacher education and confidence regarding autism of specialist primary school teachers</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>European Journal of Special Needs Education</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Joanna_Kossewska_2</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>120</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Karolina Anna Pietras</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7968-4684</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Who is the contemporary artist? Social representation of the artist among visual art students</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Polish Journal of Applied Psychology</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Karolina_Anna_Pietras_3</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>122</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Małgorzata Barbara Płoszaj</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1277-8138</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>The importance of acute-phase proteins as markers in cancers</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2021-12-31</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Medical Studies/Studia Medyczne</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Małgorzata_Barbara_Płoszaj_2</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>123</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Małgorzata Barbara Płoszaj</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1277-8138</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Effectiveness of cognitive-behavioral therapy - modification of the level of anxiety and self-esteem in parents of children with ASD</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2021-12-01</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Wychowanie w Rodzinie</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Małgorzata_Barbara_Płoszaj_3</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>124</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Małgorzata Barbara Płoszaj</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1277-8138</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Towards inclusive education of children with Autism Spectrum Disorder. The impact of teachers’ autism-specific professional development on their confidence in their professional competences</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2021-12-01</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>International Journal of Special Education (IJSE)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Małgorzata_Barbara_Płoszaj_4</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>140</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Monika Klaudia Szczygieł</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6544-0734</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Gender, general anxiety, math anxiety and math achievement in early school-age children</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Issues in Educational Research</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Monika_Klaudia_Szczygieł_4</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>141</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Monika Klaudia Szczygieł</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6544-0734</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t xml:space="preserve">Gender, general anxiety, math anxiety and math achievement in early school-age children. </t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2020-09-22</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Issues in Educational Research</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Monika_Klaudia_Szczygieł_5</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>153</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Urszula Lilianna Tokarska</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5510-3689</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Perspektywa czasowa a przekaz doświadczenia życiowego w okresie starości</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>PSYCHOLOGIA WYCHOWAWCZA</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Urszula_Lilianna_Tokarska_5</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>154</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Mediacyjna rola zachowań zdrowotnych w relacji między cechami osobowości i dobrostanem psychicznym</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Psychologia rozwojowa</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_1</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>155</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Poczucie alienacji a syndrom wypalenia szkolnego</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Forum Oświatowe</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_2</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>156</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>The mediating effect of student school burnout on the relationship between coping strategies and Internet addiction</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Current issue in personality psychology</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_3</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>157</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t xml:space="preserve">The mediation effect of dark personality traits and sense of coherence on the association between emotional dysregulation and student burnout. </t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>International Journal of Work Organization and Emotion</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_4</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>159</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Adaptacja narzędzia do pomiaru zaangażowania uczniów w aktywności szkolne – wyniki badań pilotażowych nad polską adaptacją skali SSEM</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_6</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>160</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Empathy, Gratitude, and Resilience – Does Gender Make a Difference?</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Annals of Psychology</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_7</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>161</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>How to Become More Grateful? The Mediating Role of Resilience in the Relationship between Empathy and Gratitude</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Current Psychology</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_8</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>162</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>The moderation effect of gender on the relationship between student alienation, engagement, and burnout</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Psychologia wychowawcza</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_9</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>163</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Why is it important to engage students in school activities? Examining the mediation effect of student school engagement on the relationships between student alienation and school burnout</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Polish Psychological Bulletin</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_10</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>164</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Zaangażowanie w aktywności szkolne a funkcjonowanie w roli ucznia – wyniki badań młodzieży gimnazjalnej</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Studia edukacyjne</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_11</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>165</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Thinking about My Existence during COVID-19, I Feel Anxiety and Awe—The Mediating Role of Existential Anxiety and Life Satisfaction on the Relationship between PTSD Symptoms and Post-Traumatic Growth</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2020-09-27</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>International Journal of Environmental Research and Public Health</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_12</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>166</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Examining the Relationship between Student School Burnout and Problematic Internet Use</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Educational Sciences-Theory &amp; Practice</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_13</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>167</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Polish adaptation of the ESSBS school-burnout scale: pilot study results</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Hacettepe University Journal of Education</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_14</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>168</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Struktura czynnikowa wdzięczności. Wstępne badania adaptacyjne nad skalą SGRAT-PL</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Annales Universitatis Paedagogicae Cracoviensis. Studia Psychologica</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_15</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>169</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Temperamentalne i charakterologiczne predyktory poczucia alienacji młodzieży</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Annales Universitatis Paedagogicae Cracoviensis. Studia Psychologica</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_16</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>170</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Zastosowanie skali ESSBS w badaniach uczniów ze szkół podstawowych</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Niepełnosprawność. Dyskursy Pedagogiki Specjalnej</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_17</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>172</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Gratitude and its measurement – the polish adaptation of the GRAT – R Questionnaire</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Czasopismo psychologiczne</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_19</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>173</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Humor, wartości i jakość życia – wyniki badań studentów</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Przegląd badań edukacyjnych</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_20</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>174</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Radzenie sobie ze stresem i patogenny wzór zachowania A jako predyktory wypalenia szkolnego uczniów</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Teraźniejszość – Człowiek- Edukacja</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_21</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>175</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Samoocena i jakość relacji społecznych jako czynniki chroniące przed syndromem wypalenia szkolnego</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Ruch pedagogiczny</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_22</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>176</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Uczeń z syndromem wypalenia w środowisku szkolnym – psychologiczna charakterystyka zjawiska</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Ruch pedagogiczny</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_23</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>177</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Wybrane środowiskowe przyczyny syndromu wypalenia uczniów ze szkół gimnazjalnych</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Kwartalnik pedagogiczny</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_24</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>178</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Patologiczna obsesja w relacjach intymnych –  charakterystyka zjawiska uporczywego nękania</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Annales Universitatis Paedagogicae Cracoviensis. Studia Psychologica</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_25</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>179</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Syndrom wypalenia w  zawodzie nauczyciela i w roli ucznia. Przegląd literaturowy</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Forum Oświatowe</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_26</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>180</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Katarzyna Tomaszek</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7019-5403</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Wielowymiarowość zaangażowania uczniów w aktywności szkolne</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Psychologia rozwojowa</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Katarzyna_Tomaszek_27</t>
         </is>

--- a/data/publications/orcid/export_to_manual/Uniwersytet_Pedagogiczny_Komisji_Edukacji_Narodowej_w_Krakowie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Pedagogiczny_Komisji_Edukacji_Narodowej_w_Krakowie_titles.xlsx
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_1</t>
+          <t>Katarzyna_Tomaszek_30</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_2</t>
+          <t>Katarzyna_Tomaszek_32</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_3</t>
+          <t>Katarzyna_Tomaszek_33</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_4</t>
+          <t>Katarzyna_Tomaszek_34</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_6</t>
+          <t>Katarzyna_Tomaszek_35</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_7</t>
+          <t>Katarzyna_Tomaszek_2</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_8</t>
+          <t>Katarzyna_Tomaszek_3</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_10</t>
+          <t>Katarzyna_Tomaszek_4</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_12</t>
+          <t>Katarzyna_Tomaszek_5</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_13</t>
+          <t>Katarzyna_Tomaszek_6</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Katarzyna_Tomaszek_14</t>
+          <t>Katarzyna_Tomaszek_7</t>
         </is>
       </c>
     </row>
